--- a/backend/fms_core/tests/valid_templates/Sample_transfer_v5_3_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_transfer_v5_3_0.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SampleTransfer" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Info" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Index" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="SampleTransfer" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Info" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Index" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1461,9 +1461,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1799,7 +1800,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1972,6 +1973,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2100,126 +2105,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG892"/>
+  <dimension ref="A1:AG894"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="9:9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.53"/>
@@ -2232,7 +2131,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="38.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="26.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="38.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="55"/>
@@ -2484,171 +2383,165 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
-      <c r="B9" s="21" t="s">
-        <v>46</v>
-      </c>
+      <c r="B9" s="20"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="20"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>25</v>
-      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="27" t="n">
-        <v>10</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="20"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
       <c r="R9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>49</v>
-      </c>
+      <c r="B10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="21"/>
       <c r="D10" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
+      <c r="J10" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="K10" s="7" t="n">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="27" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>54</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="19" t="n">
-        <v>400</v>
-      </c>
-      <c r="L11" s="19" t="n">
-        <v>600</v>
-      </c>
-      <c r="M11" s="36" t="n">
-        <v>100</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="R11" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="19" t="str">
-        <f aca="false">IF(AND(E$2="Yes",NOT(ISBLANK($C12))),C12,"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="39"/>
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="7" t="n">
+        <v>400</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="19" t="str">
-        <f aca="false">IF(AND(E$2="Yes",NOT(ISBLANK($C13))),C13,"")</f>
-        <v/>
+      <c r="B13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
       <c r="J13" s="35"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="39"/>
+      <c r="K13" s="19" t="n">
+        <v>400</v>
+      </c>
+      <c r="L13" s="19" t="n">
+        <v>600</v>
+      </c>
+      <c r="M13" s="36" t="n">
+        <v>100</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
@@ -2742,7 +2635,7 @@
       <c r="Q17" s="29"/>
       <c r="R17" s="39"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -2765,7 +2658,7 @@
       <c r="Q18" s="29"/>
       <c r="R18" s="39"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -4605,7 +4498,7 @@
       <c r="Q98" s="29"/>
       <c r="R98" s="39"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="19"/>
       <c r="B99" s="31"/>
       <c r="C99" s="31"/>
@@ -4628,7 +4521,7 @@
       <c r="Q99" s="29"/>
       <c r="R99" s="39"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="19"/>
       <c r="B100" s="31"/>
       <c r="C100" s="31"/>
@@ -4881,7 +4774,7 @@
       <c r="Q110" s="29"/>
       <c r="R110" s="39"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="19"/>
       <c r="B111" s="31"/>
       <c r="C111" s="31"/>
@@ -4904,7 +4797,7 @@
       <c r="Q111" s="29"/>
       <c r="R111" s="39"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="19"/>
       <c r="B112" s="31"/>
       <c r="C112" s="31"/>
@@ -6744,7 +6637,7 @@
       <c r="Q191" s="29"/>
       <c r="R191" s="39"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="19"/>
       <c r="B192" s="31"/>
       <c r="C192" s="31"/>
@@ -6767,7 +6660,7 @@
       <c r="Q192" s="29"/>
       <c r="R192" s="39"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="19"/>
       <c r="B193" s="31"/>
       <c r="C193" s="31"/>
@@ -7020,7 +6913,7 @@
       <c r="Q203" s="29"/>
       <c r="R203" s="39"/>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="19"/>
       <c r="B204" s="31"/>
       <c r="C204" s="31"/>
@@ -7043,7 +6936,7 @@
       <c r="Q204" s="29"/>
       <c r="R204" s="39"/>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="19"/>
       <c r="B205" s="31"/>
       <c r="C205" s="31"/>
@@ -8860,7 +8753,7 @@
       <c r="Q283" s="29"/>
       <c r="R283" s="39"/>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="19"/>
       <c r="B284" s="31"/>
       <c r="C284" s="31"/>
@@ -8883,7 +8776,7 @@
       <c r="Q284" s="29"/>
       <c r="R284" s="39"/>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="19"/>
       <c r="B285" s="31"/>
       <c r="C285" s="31"/>
@@ -9136,7 +9029,7 @@
       <c r="Q295" s="29"/>
       <c r="R295" s="39"/>
     </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="19"/>
       <c r="B296" s="31"/>
       <c r="C296" s="31"/>
@@ -9159,7 +9052,7 @@
       <c r="Q296" s="29"/>
       <c r="R296" s="39"/>
     </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="19"/>
       <c r="B297" s="31"/>
       <c r="C297" s="31"/>
@@ -11276,30 +11169,74 @@
       <c r="R388" s="39"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="40"/>
-      <c r="B389" s="41"/>
-      <c r="C389" s="41"/>
-      <c r="D389" s="42"/>
-      <c r="E389" s="40" t="str">
+      <c r="A389" s="19"/>
+      <c r="B389" s="31"/>
+      <c r="C389" s="31"/>
+      <c r="D389" s="37"/>
+      <c r="E389" s="19" t="str">
         <f aca="false">IF(AND(E$2="Yes",NOT(ISBLANK($C389))),C389,"")</f>
         <v/>
       </c>
-      <c r="F389" s="43"/>
-      <c r="G389" s="44"/>
-      <c r="H389" s="45"/>
-      <c r="I389" s="46"/>
-      <c r="J389" s="47"/>
-      <c r="K389" s="40"/>
-      <c r="L389" s="40"/>
-      <c r="M389" s="48"/>
-      <c r="N389" s="49"/>
-      <c r="O389" s="43"/>
-      <c r="P389" s="43"/>
-      <c r="Q389" s="43"/>
-      <c r="R389" s="50"/>
-    </row>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="F389" s="29"/>
+      <c r="G389" s="32"/>
+      <c r="H389" s="33"/>
+      <c r="I389" s="34"/>
+      <c r="J389" s="35"/>
+      <c r="K389" s="19"/>
+      <c r="L389" s="19"/>
+      <c r="M389" s="36"/>
+      <c r="N389" s="38"/>
+      <c r="O389" s="29"/>
+      <c r="P389" s="29"/>
+      <c r="Q389" s="29"/>
+      <c r="R389" s="39"/>
+    </row>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A390" s="19"/>
+      <c r="B390" s="31"/>
+      <c r="C390" s="31"/>
+      <c r="D390" s="37"/>
+      <c r="E390" s="19" t="str">
+        <f aca="false">IF(AND(E$2="Yes",NOT(ISBLANK($C390))),C390,"")</f>
+        <v/>
+      </c>
+      <c r="F390" s="29"/>
+      <c r="G390" s="32"/>
+      <c r="H390" s="33"/>
+      <c r="I390" s="34"/>
+      <c r="J390" s="35"/>
+      <c r="K390" s="19"/>
+      <c r="L390" s="19"/>
+      <c r="M390" s="36"/>
+      <c r="N390" s="38"/>
+      <c r="O390" s="29"/>
+      <c r="P390" s="29"/>
+      <c r="Q390" s="29"/>
+      <c r="R390" s="39"/>
+    </row>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A391" s="40"/>
+      <c r="B391" s="41"/>
+      <c r="C391" s="41"/>
+      <c r="D391" s="42"/>
+      <c r="E391" s="43" t="str">
+        <f aca="false">IF(AND(E$2="Yes",NOT(ISBLANK($C391))),C391,"")</f>
+        <v/>
+      </c>
+      <c r="F391" s="44"/>
+      <c r="G391" s="45"/>
+      <c r="H391" s="46"/>
+      <c r="I391" s="47"/>
+      <c r="J391" s="48"/>
+      <c r="K391" s="40"/>
+      <c r="L391" s="40"/>
+      <c r="M391" s="49"/>
+      <c r="N391" s="50"/>
+      <c r="O391" s="44"/>
+      <c r="P391" s="44"/>
+      <c r="Q391" s="44"/>
+      <c r="R391" s="51"/>
+    </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -11801,52 +11738,54 @@
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J10:J389" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J12:J391" type="list">
       <formula1>"YES,NO"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6 E8:E389" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6 E8:E391" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C10:C389 I10:I389" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C12:C391 I12:I391" type="list">
       <formula1>Index!$A$2:$A$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G10:G389" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G12:G391" type="list">
       <formula1>Index!$C$2:$C$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R10:R389" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R12:R391" type="list">
       <formula1>Index!$D$2:$D$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2" type="list">
       <formula1>Index!$E$2:$E$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C9 I6:I9" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C11 I6:I11" type="list">
       <formula1>Info!$A$2:$A$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G6:G9" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G6:G11" type="list">
       <formula1>Info!$C$2:$C$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J6:J9" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J6:J11" type="list">
       <formula1>"YES,NO"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R9" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R11" type="list">
       <formula1>Info!$D$2:$D$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -11855,17 +11794,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="9:9 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.33"/>
   </cols>
@@ -11996,7 +11935,7 @@
       <c r="V5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="4"/>
@@ -12020,8 +11959,8 @@
       <c r="V6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -12043,13 +11982,13 @@
       <c r="V7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -12071,13 +12010,13 @@
       <c r="V8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -12099,13 +12038,13 @@
       <c r="V9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -12127,13 +12066,13 @@
       <c r="V10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -12155,13 +12094,13 @@
       <c r="V11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -12183,13 +12122,13 @@
       <c r="V12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -12211,13 +12150,13 @@
       <c r="V13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -12239,13 +12178,13 @@
       <c r="V14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="56"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -12267,13 +12206,13 @@
       <c r="V15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -12295,13 +12234,13 @@
       <c r="V16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -12323,13 +12262,13 @@
       <c r="V17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -12351,13 +12290,13 @@
       <c r="V18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -12379,13 +12318,13 @@
       <c r="V19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -12407,13 +12346,13 @@
       <c r="V20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -12435,13 +12374,13 @@
       <c r="V21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -12463,13 +12402,13 @@
       <c r="V22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -12491,10 +12430,10 @@
       <c r="V23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="56" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="4"/>
@@ -13111,7 +13050,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -13120,17 +13059,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="9:9 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.5"/>
@@ -16029,8 +15968,8 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
